--- a/src/test/java/TestResult/TestResult.xlsx
+++ b/src/test/java/TestResult/TestResult.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t462204\eclipse-workspace\PSPrint\src\test\java\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F00131-7B5F-4D68-AE6F-7E08D5202DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4F743-0990-4327-A134-A71ECB9E9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -51,29 +51,51 @@
     <t>Post Cards</t>
   </si>
   <si>
-    <t>3718368-5079571</t>
-  </si>
-  <si>
-    <t>3718423-5079670</t>
-  </si>
-  <si>
-    <t>3718447-5079749</t>
-  </si>
-  <si>
-    <t>3718468-5079781</t>
+    <t>3718493-5079864</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3718503-5079880</t>
+  </si>
+  <si>
+    <t>3718509-5079888</t>
+  </si>
+  <si>
+    <t>3718510-5079889</t>
+  </si>
+  <si>
+    <t>3718511-5079890</t>
+  </si>
+  <si>
+    <t>3718512-5079891</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -98,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,13 +143,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,32 +442,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD93B530-39A4-40F7-B294-CBB4C1BA4BA8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -444,40 +495,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D693AA-2327-41BC-8618-ADB5B981EE86}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.7109375"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375"/>
+    <col min="3" max="3" customWidth="true" width="22.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39506603-4372-41D4-BA5E-48A313025ED7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="6.0"/>
+    <col min="2" max="2" customWidth="true" width="15.28515625"/>
+    <col min="3" max="3" customWidth="true" width="18.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -485,68 +589,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39506603-4372-41D4-BA5E-48A313025ED7}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFBBFC9-9599-42F4-81A1-81241546977D}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="3.85546875"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFBBFC9-9599-42F4-81A1-81241546977D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TestResult/TestResult.xlsx
+++ b/src/test/java/TestResult/TestResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t462204\eclipse-workspace\PSPrint\src\test\java\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4F743-0990-4327-A134-A71ECB9E9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B96D0C-1D58-4075-A5CD-081CC1910B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Roll Stickers</t>
   </si>
   <si>
-    <t>3718267-5079305</t>
-  </si>
-  <si>
     <t>Post Cards</t>
   </si>
   <si>
-    <t>3718493-5079864</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -63,19 +57,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>3718503-5079880</t>
-  </si>
-  <si>
-    <t>3718509-5079888</t>
-  </si>
-  <si>
-    <t>3718510-5079889</t>
-  </si>
-  <si>
-    <t>3718511-5079890</t>
-  </si>
-  <si>
-    <t>3718512-5079891</t>
+    <t>3718584-5079987</t>
+  </si>
+  <si>
+    <t>3718585-5079988</t>
   </si>
 </sst>
 </file>
@@ -445,7 +430,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +441,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -467,25 +452,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -498,7 +473,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -521,24 +496,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +527,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -575,13 +550,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +566,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +578,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -617,13 +589,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
